--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>97.96</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +939,705 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.61</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2331,7 +2332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,17 +2343,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2362,14 +2383,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.16</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2378,14 +2421,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.61</v>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2394,14 +2459,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -2410,14 +2581,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -2426,13 +2597,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006593</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博道中证500指数增强A</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0459</t>
+          <t>0.5978</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006594</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博道中证500指数增强C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.2241</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>002367</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>国联安安稳灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>36.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +809,720 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>010551</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1445</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +2276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,7 +2297,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1605,720 +2327,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>82.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8156</t>
+          <t>0.1445</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3012</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2397</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011349</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1346</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1149</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1062</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1026</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005433</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信医药先锋股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0805</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>33.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0355</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>74.11</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002316</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>96.39</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2353,7 +2391,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2383,36 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>006593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>博道中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.05</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.0459</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2421,36 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>006594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>博道中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2241</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2459,36 +2497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002367</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安安稳灵活配置混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36.36</t>
+          <t>97.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2502,128 +2540,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.16</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +1089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1530,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2270,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2364,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +2871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
+++ b/数据整理/stocks/A股/深证主板/000623-吉林敖东.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.16</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>1.61</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001508</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -919,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1867,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2607,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2701,7 +3154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2871,7 +3324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
